--- a/Team-Data/2008-09/3-4-2008-09.xlsx
+++ b/Team-Data/2008-09/3-4-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,52 +733,52 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P2" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R2" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T2" t="n">
         <v>40</v>
@@ -723,28 +790,28 @@
         <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
@@ -789,31 +856,31 @@
         <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="n">
         <v>16</v>
       </c>
-      <c r="AV2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="AY2" t="n">
         <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -863,43 +930,43 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.488</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P3" t="n">
         <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
         <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,16 +987,16 @@
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -953,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1117,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1147,19 +1214,19 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -1230,10 +1297,10 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,31 +1309,31 @@
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R5" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,28 +1348,28 @@
         <v>21.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>100.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1338,34 +1405,34 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -1397,13 +1464,13 @@
         <v>59</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.797</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
@@ -1412,28 +1479,28 @@
         <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.387</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1448,10 +1515,10 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
@@ -1460,34 +1527,34 @@
         <v>4.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1505,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1514,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,10 +1590,10 @@
         <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
         <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,49 +1661,49 @@
         <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
         <v>19.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1645,19 +1712,19 @@
         <v>19.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,28 +1763,28 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1899,10 +1966,10 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2039,16 +2106,16 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>27</v>
@@ -2057,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2066,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>6.7</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O10" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2173,13 +2240,13 @@
         <v>41.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
@@ -2191,28 +2258,28 @@
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.9</v>
+        <v>108.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2224,13 +2291,13 @@
         <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.449</v>
@@ -2340,25 +2407,25 @@
         <v>19.4</v>
       </c>
       <c r="P11" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2373,49 +2440,49 @@
         <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2486,58 +2553,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
         <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.422</v>
+        <v>0.429</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
         <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
         <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
         <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
         <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V12" t="n">
         <v>15</v>
@@ -2549,13 +2616,13 @@
         <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
         <v>104.8</v>
@@ -2573,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2618,16 +2685,16 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW12" t="n">
         <v>21</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>0.242</v>
+        <v>0.246</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2686,37 +2753,37 @@
         <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R13" t="n">
         <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2734,22 +2801,22 @@
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB13" t="n">
         <v>94.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.9</v>
+        <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2773,37 +2840,37 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,34 +2944,34 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
         <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2913,34 +2980,34 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2952,16 +3019,16 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2970,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
         <v>7</v>
@@ -2991,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.267</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
         <v>77.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
         <v>19.2</v>
       </c>
       <c r="P15" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3080,37 +3147,37 @@
         <v>28.7</v>
       </c>
       <c r="T15" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>22.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3149,16 +3216,16 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,22 +3234,22 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.533</v>
+        <v>0.525</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J16" t="n">
         <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P16" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
@@ -3265,10 +3332,10 @@
         <v>39.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3307,31 +3374,31 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3343,28 +3410,28 @@
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -3411,49 +3478,49 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
         <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
         <v>3.8</v>
@@ -3462,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,28 +3556,28 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,16 +3586,16 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>11</v>
@@ -3692,7 +3759,7 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3707,10 +3774,10 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
         <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3778,19 +3845,19 @@
         <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O19" t="n">
         <v>19.3</v>
@@ -3799,19 +3866,19 @@
         <v>24.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V19" t="n">
         <v>13.3</v>
@@ -3820,25 +3887,25 @@
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3862,19 +3929,19 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
@@ -3883,10 +3950,10 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3898,19 +3965,19 @@
         <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4038,7 +4105,7 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4050,10 +4117,10 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4077,16 +4144,16 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4151,37 +4218,37 @@
         <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O21" t="n">
         <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T21" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4196,13 +4263,13 @@
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4250,16 +4317,16 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.262</v>
+        <v>0.25</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,28 +4391,28 @@
         <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M22" t="n">
         <v>11.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
@@ -4369,22 +4436,22 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4417,10 +4484,10 @@
         <v>15</v>
       </c>
       <c r="AO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP22" t="n">
         <v>9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4435,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,13 +4517,13 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4781,31 +4848,31 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>8</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
         <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.381</v>
       </c>
       <c r="O25" t="n">
         <v>20.8</v>
@@ -4891,16 +4958,16 @@
         <v>27.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
@@ -4924,13 +4991,13 @@
         <v>22.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.4</v>
+        <v>107</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4942,13 +5009,13 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5037,55 +5104,55 @@
         <v>59</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.644</v>
+        <v>0.627</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5103,16 +5170,16 @@
         <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5121,31 +5188,31 @@
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5163,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,10 +5248,10 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5306,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5351,13 +5418,13 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.678</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.464</v>
@@ -5425,13 +5492,13 @@
         <v>7.9</v>
       </c>
       <c r="M28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
         <v>19.9</v>
@@ -5440,10 +5507,10 @@
         <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
         <v>41</v>
@@ -5452,7 +5519,7 @@
         <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5470,13 +5537,13 @@
         <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5536,10 +5603,10 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5670,13 +5737,13 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>13</v>
@@ -5691,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5706,13 +5773,13 @@
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
@@ -5783,55 +5850,55 @@
         <v>79.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M30" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
         <v>24.9</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB30" t="n">
         <v>103.1</v>
@@ -5840,19 +5907,19 @@
         <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5894,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
         <v>22.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
@@ -6010,19 +6077,19 @@
         <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>22</v>
@@ -6088,7 +6155,7 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-4-2008-09</t>
+          <t>2009-03-04</t>
         </is>
       </c>
     </row>
